--- a/venv/Scripts/Excel_files/Audit_Rpt.xlsx
+++ b/venv/Scripts/Excel_files/Audit_Rpt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>Attributes</t>
   </si>
@@ -51,10 +51,10 @@
     <t>Single Person</t>
   </si>
   <si>
-    <t>LRA</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>fff</t>
@@ -105,7 +105,7 @@
     <t>AIRN</t>
   </si>
   <si>
-    <t>07/06/2020</t>
+    <t>07/08/2020</t>
   </si>
   <si>
     <t>12/31/2099</t>
@@ -550,7 +550,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -599,10 +599,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>1159210</v>
+        <v>1075540</v>
       </c>
       <c r="B2">
-        <v>51018</v>
+        <v>88154</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -620,11 +620,11 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
       <c r="K2" t="s">
         <v>31</v>
       </c>
@@ -632,6 +632,44 @@
         <v>31</v>
       </c>
       <c r="M2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>1075540</v>
+      </c>
+      <c r="B3">
+        <v>93853</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -661,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1159210</v>
+        <v>1075540</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -704,10 +742,10 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
